--- a/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/sd-add-associatedPartyR5/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T17:09:55+00:00</t>
+    <t>2024-02-12T10:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
